--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_236.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_236.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1663636363636364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.14, 85.34)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(48.32, 106.76)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:24.290000', '0:00:28.790000'), ('0:00:14.300000', '0:00:17.650000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:05.700000', '0:00:10.900000'), ('0:00:06.460000', '0:00:12.080000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1548582995951417</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'E'], ['F#', 'B', 'B'], ['B', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1142241379310345</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D'], ['E/3', 'A', 'A'], ['A', 'A', 'D']]</t>
+          <t>[['F#:maj', 'B:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(47.21102, 53.747437), (26.162131, 40.546893), (9.107074, 24.838594)]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.385936, 6.194008), (13.508294, 17.444076), (14.448702, 17.908476)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:10.960000', '0:00:12.940000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:46.272131', '0:00:52.170000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(33.14, 37.24)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(74.879, 85.949)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:08.200000', '0:00:12.660000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1087570621468927</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06853146853146853</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(59.292687, 74.118628)]</t>
+          <t>[['C:min', 'F:min', 'C:min/5']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.014988, 20.892721)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:28.480000', '0:01:40.380000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.45</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.48, 25.86)]</t>
+          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G#:7', 'C#:maj', 'G#:maj', 'C#:maj'], ['C#:maj', 'G#:7', 'C#:maj', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj', 'D:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.48, 10.78), (7.92, 10.2)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(44.16, 47.28), (43.04, 46.66)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A'], ['D', 'A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G', 'C/5', 'G'], ['C:maj', 'G', 'C/5', 'G', 'C/5']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.91585, 20.672131), (8.899614, 23.621065)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(59.182426, 68.064058), (57.406099, 66.310952)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(66.93, 72.56)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08098271155595996</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(75.58, 86.06)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['A:min7/C', 'D:7', 'G:maj'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'A/3', 'B:min7'], ['B:min7/4', 'E:7', 'A'], ['A:7', 'D', 'A/3'], ['A', 'D', 'A/3']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(63.18, 66.1), (64.66, 71.06), (56.6, 61.46), (16.04, 22.4)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.409, 17.913), (47.371, 50.945), (38.689, 45.633), (13.527, 17.058)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.9, 19.28), (10.38, 22.02)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.22, 5.78), (0.86, 7.72)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1004700352526439</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7', 'Bb']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.2, 19.54), (17.94, 20.7)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.82, 17.23), (14.59, 16.26)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06346153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(40.44, 46.84), (13.48, 20.96), (81.1, 87.58), (38.62, 44.06), (27.46, 36.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(31.68, 33.78), (11.24, 15.78), (20.92, 24.02), (35.86, 37.44), (7.3, 10.3)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
